--- a/biology/Botanique/Akane_(pomme)/Akane_(pomme).xlsx
+++ b/biology/Botanique/Akane_(pomme)/Akane_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Akane (rouge en japonais) est un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivar de pommier obtenu au Japon en 1937.
 </t>
@@ -542,9 +556,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Primrouge, Tokyo rose[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Primrouge, Tokyo rose.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Issue du croisement 'Jonathan' x 'Worcester pearmain'.
 Diploïde, s-génotype s7s24
@@ -606,7 +624,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La pomme Akane est une pomme petite à moyenne.
 Sa fine peau jaune striée de rouge recouvre une chair blanche, croquante, juteuse, acidulée proche de celle de Jonathan avec le léger goût de fraise de 'Worcester pearmain'.
@@ -638,10 +658,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pommier 'Akane' est rustique mais de vigueur faible à moyenne. De port érigé, il est peu fertile. Il est adapté aux régions chaudes car il n'a pas besoin d'une longue exposition hivernale au froid.
-Sa susceptibilité est moyenne à la tavelure du pommier et au feu bactérien. Elle est élevée à l'oïdium et à la rouille[2]. Cette variété n'est donc pas particulièrement recommandée pour les petits jardins familiaux.
+Sa susceptibilité est moyenne à la tavelure du pommier et au feu bactérien. Elle est élevée à l'oïdium et à la rouille. Cette variété n'est donc pas particulièrement recommandée pour les petits jardins familiaux.
 Groupe de floraison: B (début de saison).
 Il atteint la pleine floraison 3 jours après Golden Delicious et est donc pollinisé par Golden Delicious, Reine des Reinettes ou Idared.
 Akane fleurit vers la fin avril mais a besoin de moins de 4 mois (110 jours) pour arriver à maturité. On la récolte donc mi-août et elle se conserve jusqu'à fin avril.
